--- a/requirements/MOSIP_Processes_Consolidated List_External.xlsx
+++ b/requirements/MOSIP_Processes_Consolidated List_External.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A88FD3BD-635D-4903-83A3-36F6B255DA96}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{70ADA427-297C-4A26-968B-98800A01DFE7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
   <si>
     <r>
       <t xml:space="preserve">Processes: </t>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>OK - But the parameters of algorithm is not configurable as confirmed with Shrikant</t>
+  </si>
+  <si>
+    <t>EoD Process</t>
   </si>
 </sst>
 </file>
@@ -297,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -442,11 +445,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -555,6 +569,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1339,8 +1362,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EE2EE7B7-F13B-4F10-8E58-598F6ABF19FA}" name="Table2235" displayName="Table2235" ref="A2:E12" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A2:E12" xr:uid="{12C8BC45-5F9D-4416-A1F7-9A285A19F96C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EE2EE7B7-F13B-4F10-8E58-598F6ABF19FA}" name="Table2235" displayName="Table2235" ref="A2:E13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A2:E13" xr:uid="{12C8BC45-5F9D-4416-A1F7-9A285A19F96C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0A150CCD-EE88-4673-842E-BD7F2CB547B7}" name="S.No" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{677E1245-4177-4B31-AAB7-6FC03060883D}" name="Process Name" dataDxfId="13"/>
@@ -2413,7 +2436,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2700,6 +2723,21 @@
         <v>35</v>
       </c>
       <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="37">
+        <v>19</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3378,15 +3416,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3593,6 +3622,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3620,14 +3658,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3174CE2-5708-4158-93D0-CBBFFB333158}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E8A634F-74FC-499D-ABEA-0CA6D30F983F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3642,6 +3672,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3174CE2-5708-4158-93D0-CBBFFB333158}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/requirements/MOSIP_Processes_Consolidated List_External.xlsx
+++ b/requirements/MOSIP_Processes_Consolidated List_External.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{70ADA427-297C-4A26-968B-98800A01DFE7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7368" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-Registration" sheetId="2" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="42">
   <si>
     <r>
       <t xml:space="preserve">Processes: </t>
@@ -204,11 +203,14 @@
   <si>
     <t>EoD Process</t>
   </si>
+  <si>
+    <t>Reigstration configmration to additional email IDs &amp; phone numbers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -460,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -561,6 +563,15 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,14 +581,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1331,7 +1336,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="31"/>
       <tableStyleElement type="headerRow" dxfId="30"/>
     </tableStyle>
@@ -1348,42 +1353,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table22" displayName="Table22" ref="A2:E26" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
-  <autoFilter ref="A2:E26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A2:E26" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+  <autoFilter ref="A2:E26"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S.No" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Process Name" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Default" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Mindtree Comments" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Customer Comments" dataDxfId="20"/>
+    <tableColumn id="1" name="S.No" dataDxfId="24"/>
+    <tableColumn id="2" name="Process Name" dataDxfId="23"/>
+    <tableColumn id="4" name="Default" dataDxfId="22"/>
+    <tableColumn id="7" name="Mindtree Comments" dataDxfId="21"/>
+    <tableColumn id="6" name="Customer Comments" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EE2EE7B7-F13B-4F10-8E58-598F6ABF19FA}" name="Table2235" displayName="Table2235" ref="A2:E13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A2:E13" xr:uid="{12C8BC45-5F9D-4416-A1F7-9A285A19F96C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table2235" displayName="Table2235" ref="A2:E14" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A2:E14"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0A150CCD-EE88-4673-842E-BD7F2CB547B7}" name="S.No" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{677E1245-4177-4B31-AAB7-6FC03060883D}" name="Process Name" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{C6F803FC-16E5-4032-97D3-9CE72A6A7CA4}" name="Default" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{9C8D80A7-C83A-4F15-A685-E3F112C2458C}" name="Mindtree Comments" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{281A199E-C7B3-479C-916D-9C459BF8EB1E}" name="Customer Comments" dataDxfId="10"/>
+    <tableColumn id="1" name="S.No" dataDxfId="14"/>
+    <tableColumn id="2" name="Process Name" dataDxfId="13"/>
+    <tableColumn id="4" name="Default" dataDxfId="12"/>
+    <tableColumn id="7" name="Mindtree Comments" dataDxfId="11"/>
+    <tableColumn id="6" name="Customer Comments" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2234" displayName="Table2234" ref="A2:E25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A2:E25" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2234" displayName="Table2234" ref="A2:E25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A2:E25"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="S.No" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Process Name" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Default" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Mindtree Comments" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Customer Comments" dataDxfId="0"/>
+    <tableColumn id="1" name="S.No" dataDxfId="4"/>
+    <tableColumn id="2" name="Process Name" dataDxfId="3"/>
+    <tableColumn id="4" name="Default" dataDxfId="2"/>
+    <tableColumn id="7" name="Mindtree Comments" dataDxfId="1"/>
+    <tableColumn id="6" name="Customer Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1651,33 +1656,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E1"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="72" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
     <col min="4" max="5" width="39" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1694,7 +1699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1737,7 +1742,7 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1780,7 +1785,7 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1807,7 +1812,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:33" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -1834,7 +1839,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="6"/>
       <c r="C7" s="5"/>
@@ -1869,7 +1874,7 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="6"/>
       <c r="C8" s="4"/>
@@ -1904,7 +1909,7 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="5"/>
@@ -1939,7 +1944,7 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="5"/>
@@ -1974,7 +1979,7 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="5"/>
@@ -2009,7 +2014,7 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="5"/>
@@ -2044,7 +2049,7 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="5"/>
@@ -2079,7 +2084,7 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="5"/>
@@ -2114,7 +2119,7 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="5"/>
@@ -2149,7 +2154,7 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="5"/>
@@ -2184,7 +2189,7 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="14"/>
       <c r="C17" s="5"/>
@@ -2219,7 +2224,7 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="6"/>
       <c r="C18" s="20"/>
@@ -2254,7 +2259,7 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
@@ -2289,7 +2294,7 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
@@ -2324,7 +2329,7 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
@@ -2359,7 +2364,7 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
@@ -2394,28 +2399,28 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="6"/>
       <c r="C25" s="5"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
@@ -2435,33 +2440,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="72" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" style="1" customWidth="1"/>
     <col min="4" max="5" width="39" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -2478,7 +2483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -2505,7 +2510,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="9" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -2532,7 +2537,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30">
         <v>3</v>
       </c>
@@ -2559,7 +2564,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -2586,7 +2591,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30">
         <v>5</v>
       </c>
@@ -2613,7 +2618,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -2640,7 +2645,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>10</v>
       </c>
@@ -2667,7 +2672,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>16</v>
       </c>
@@ -2694,7 +2699,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="30">
         <v>17</v>
       </c>
@@ -2709,7 +2714,7 @@
       </c>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>18</v>
       </c>
@@ -2724,11 +2729,11 @@
       </c>
       <c r="E12" s="21"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="37">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="34">
         <v>19</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="35" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -2737,7 +2742,20 @@
       <c r="D13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="39"/>
+      <c r="E13" s="36"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="34">
+        <v>20</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2752,7 +2770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2762,25 +2780,25 @@
       <selection pane="bottomRight" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
     <col min="2" max="2" width="72" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
     <col min="4" max="5" width="39" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -2797,7 +2815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -2824,7 +2842,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -2851,7 +2869,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -2878,7 +2896,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="9" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -2905,7 +2923,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="6"/>
       <c r="C7" s="4"/>
@@ -2924,7 +2942,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="5"/>
@@ -2943,7 +2961,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="5"/>
@@ -2962,7 +2980,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="5"/>
@@ -2981,7 +2999,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="5"/>
@@ -3000,7 +3018,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="5"/>
@@ -3019,7 +3037,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="5"/>
@@ -3038,7 +3056,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="5"/>
@@ -3057,7 +3075,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="5"/>
@@ -3076,7 +3094,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="14"/>
       <c r="C16" s="5"/>
@@ -3095,7 +3113,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="6"/>
       <c r="C17" s="20"/>
@@ -3114,7 +3132,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
@@ -3133,7 +3151,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
@@ -3152,7 +3170,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
@@ -3171,7 +3189,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
@@ -3190,28 +3208,28 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
@@ -3231,34 +3249,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="76.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="29.5703125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="6.88671875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="76.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="29.5546875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -3275,7 +3293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -3288,7 +3306,7 @@
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -3301,7 +3319,7 @@
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -3314,7 +3332,7 @@
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>4</v>
       </c>
@@ -3339,7 +3357,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>5</v>
       </c>
@@ -3352,7 +3370,7 @@
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>6</v>
       </c>
@@ -3365,7 +3383,7 @@
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>7</v>
       </c>
@@ -3378,7 +3396,7 @@
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>8</v>
       </c>
@@ -3391,14 +3409,14 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="18"/>
@@ -3406,7 +3424,7 @@
       <c r="E12" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E2" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A2:E2"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
@@ -3416,6 +3434,41 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3622,42 +3675,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50A5568B-AE5A-4E16-9E1F-F6758BCAE61C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3174CE2-5708-4158-93D0-CBBFFB333158}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E8A634F-74FC-499D-ABEA-0CA6D30F983F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3674,29 +3717,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3174CE2-5708-4158-93D0-CBBFFB333158}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50A5568B-AE5A-4E16-9E1F-F6758BCAE61C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>